--- a/status_jogo/inimigos_masmorra.xlsx
+++ b/status_jogo/inimigos_masmorra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\status_jogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6131EB-A3DD-4302-AF9D-E62937A9B6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B536A02B-6A05-4791-851F-5BFEADD78F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>nome</t>
   </si>
@@ -173,13 +173,61 @@
   </si>
   <si>
     <t>6_3</t>
+  </si>
+  <si>
+    <t>Golem de Fogo Ancestral</t>
+  </si>
+  <si>
+    <t>Monstros Masmorra do Fim</t>
+  </si>
+  <si>
+    <t>Paladino</t>
+  </si>
+  <si>
+    <t>40 - 50</t>
+  </si>
+  <si>
+    <t>60 - 80</t>
+  </si>
+  <si>
+    <t>70 - 80</t>
+  </si>
+  <si>
+    <t>40 - 60</t>
+  </si>
+  <si>
+    <t>30 - 40</t>
+  </si>
+  <si>
+    <t>30 - 45</t>
+  </si>
+  <si>
+    <t>10 -- 20</t>
+  </si>
+  <si>
+    <t>35 - 45</t>
+  </si>
+  <si>
+    <t>Bola de Fogo</t>
+  </si>
+  <si>
+    <t>Benção Divina</t>
+  </si>
+  <si>
+    <t>Tiro Certeiro</t>
+  </si>
+  <si>
+    <t>Decapitação</t>
+  </si>
+  <si>
+    <t>Player (Jogador)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +296,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -281,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -304,11 +365,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,9 +427,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,6 +456,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,98 +790,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="N1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -761,248 +902,320 @@
         <v>47</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>30</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45</v>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>45</v>
       </c>
       <c r="F5" s="2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
+      <c r="H5" s="2">
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>36</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
         <v>60</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>70</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>36</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>90</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2">
-        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
         <v>90</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
       </c>
       <c r="I9" s="2">
         <v>90</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>120</v>
       </c>
       <c r="D10" s="2">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" s="2">
-        <v>290</v>
-      </c>
-      <c r="J10" s="6">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2">
         <v>45</v>
@@ -1011,310 +1224,378 @@
         <v>47</v>
       </c>
       <c r="F11" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="2">
+        <v>290</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
         <v>120</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2">
-        <v>100</v>
       </c>
       <c r="D12" s="2">
         <v>55</v>
       </c>
-      <c r="E12" s="2">
-        <v>100</v>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I12" s="2">
-        <v>320</v>
-      </c>
-      <c r="J12" s="7">
+        <v>290</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="2">
-        <v>7</v>
       </c>
       <c r="I13" s="2">
         <v>120</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
       </c>
       <c r="D14" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2">
+        <v>320</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
         <v>30</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>80</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>7</v>
-      </c>
-      <c r="I14" s="2">
-        <v>120</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2">
-        <v>120</v>
-      </c>
-      <c r="D15" s="2">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2">
-        <v>80</v>
-      </c>
-      <c r="F15" s="2">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10</v>
       </c>
       <c r="I15" s="2">
         <v>120</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30</v>
       </c>
       <c r="F16" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2">
         <v>7</v>
       </c>
       <c r="I16" s="2">
-        <v>150</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>49</v>
+        <v>120</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>80</v>
       </c>
       <c r="F17" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>150</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>49</v>
+        <v>120</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H18" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>350</v>
-      </c>
-      <c r="J18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
         <v>150</v>
       </c>
-      <c r="D19" s="2">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2">
-        <v>80</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2">
-        <v>350</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2">
+        <v>350</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2">
+        <v>350</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <v>120</v>
       </c>
-      <c r="D20" s="2">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D22" s="2">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2">
         <v>90</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="2">
         <v>85</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I22" s="2">
         <v>400</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/status_jogo/inimigos_masmorra.xlsx
+++ b/status_jogo/inimigos_masmorra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\status_jogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B536A02B-6A05-4791-851F-5BFEADD78F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1620255-2D27-46BC-A0E4-B7572E4BE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +460,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,18 +473,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +787,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,26 +802,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="N1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -910,22 +904,22 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -960,22 +954,22 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1010,22 +1004,22 @@
       <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1060,22 +1054,22 @@
       <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="14" t="s">
         <v>65</v>
       </c>
     </row>

--- a/status_jogo/inimigos_masmorra.xlsx
+++ b/status_jogo/inimigos_masmorra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\status_jogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1620255-2D27-46BC-A0E4-B7572E4BE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF31AC-E881-4F0B-A316-5877FA9ADFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,6 +474,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +794,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,8 +976,8 @@
       <c r="R4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>63</v>
+      <c r="S4" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1019,8 +1026,8 @@
       <c r="R5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>64</v>
+      <c r="S5" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1070,7 +1077,7 @@
         <v>58</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1168,6 +1175,7 @@
       <c r="J9" s="5">
         <v>4</v>
       </c>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1200,6 +1208,7 @@
       <c r="J10" s="5">
         <v>4</v>
       </c>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1232,6 +1241,7 @@
       <c r="J11" s="5">
         <v>4</v>
       </c>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1264,6 +1274,7 @@
       <c r="J12" s="5">
         <v>4</v>
       </c>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1296,6 +1307,7 @@
       <c r="J13" s="6">
         <v>5</v>
       </c>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">

--- a/status_jogo/inimigos_masmorra.xlsx
+++ b/status_jogo/inimigos_masmorra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\status_jogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF31AC-E881-4F0B-A316-5877FA9ADFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D87AA-FB43-4613-B5F1-5E401FF3B849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>nome</t>
   </si>
@@ -221,13 +221,28 @@
   </si>
   <si>
     <t>Player (Jogador)</t>
+  </si>
+  <si>
+    <t>O Colecionador de Nomes</t>
+  </si>
+  <si>
+    <t>Memorias Mortais</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>40 - 55</t>
+  </si>
+  <si>
+    <t>Fogo da Alma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +323,14 @@
       <sz val="12"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -466,6 +489,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,11 +504,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,6 +515,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF006600"/>
     </mruColors>
   </colors>
@@ -791,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,26 +835,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="N1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -921,7 +947,7 @@
         <v>58</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>58</v>
@@ -1175,7 +1201,6 @@
       <c r="J9" s="5">
         <v>4</v>
       </c>
-      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1208,7 +1233,7 @@
       <c r="J10" s="5">
         <v>4</v>
       </c>
-      <c r="S10" s="20"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1241,7 +1266,7 @@
       <c r="J11" s="5">
         <v>4</v>
       </c>
-      <c r="S11" s="20"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1274,7 +1299,7 @@
       <c r="J12" s="5">
         <v>4</v>
       </c>
-      <c r="S12" s="21"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1307,7 +1332,6 @@
       <c r="J13" s="6">
         <v>5</v>
       </c>
-      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1393,7 +1417,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2">
         <v>7</v>
@@ -1595,6 +1619,70 @@
       </c>
       <c r="J22" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2">
+        <v>70</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2">
+        <v>300</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2">
+        <v>200</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
